--- a/Assets/Resources/CSV.data/WeaponStat.xlsx
+++ b/Assets/Resources/CSV.data/WeaponStat.xlsx
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/CSV.data/WeaponStat.xlsx
+++ b/Assets/Resources/CSV.data/WeaponStat.xlsx
@@ -33,9 +33,6 @@
     <t>PISTOL</t>
   </si>
   <si>
-    <t>RANGE</t>
-  </si>
-  <si>
     <t>총</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
   </si>
   <si>
     <t>SPEAR</t>
-  </si>
-  <si>
-    <t>MELEE</t>
   </si>
   <si>
     <t>원시</t>
@@ -224,6 +218,12 @@
   <si>
     <t>null</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELEE_DAMAGE</t>
+  </si>
+  <si>
+    <t>RANGE_DAMAGE</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1178,8 +1178,8 @@
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
     <col min="7" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="11.625" style="2" bestFit="1" customWidth="1"/>
@@ -1199,115 +1199,115 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>2</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M2" s="2">
         <v>100</v>
@@ -1429,10 +1429,10 @@
         <v>50</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M3" s="2">
         <v>80</v>
@@ -1551,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="M4" s="2">
         <v>100</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="M5" s="2">
         <v>50</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="M6" s="2">
         <v>100</v>
@@ -1917,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
@@ -1928,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2">
         <v>100</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>8</v>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2">
         <v>50</v>
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="2">
         <v>50</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/WeaponStat.xlsx
+++ b/Assets/Resources/CSV.data/WeaponStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>WeaponNum</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>DRIVER</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>ENGINE</t>
@@ -216,14 +213,41 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
+    <t>MELEE_DAMAGE</t>
+  </si>
+  <si>
+    <t>RANGE_DAMAGE</t>
+  </si>
+  <si>
+    <t>WAND</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>ELEMENTAL</t>
+  </si>
+  <si>
+    <t>원소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORCH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>MELEE_DAMAGE</t>
-  </si>
-  <si>
-    <t>RANGE_DAMAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEMENTAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELEE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>원시, 원소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -703,6 +727,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -832,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +926,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1199,115 +1303,115 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>2</v>
@@ -1348,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2">
         <v>100</v>
@@ -1429,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>4</v>
@@ -1470,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2">
         <v>80</v>
@@ -1551,7 +1655,7 @@
         <v>30</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>4</v>
@@ -1592,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" s="2">
         <v>100</v>
@@ -1673,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AN4" s="2" t="s">
         <v>7</v>
@@ -1714,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5" s="2">
         <v>50</v>
@@ -1795,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN5" s="2" t="s">
         <v>9</v>
@@ -1836,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2">
         <v>100</v>
@@ -1917,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>11</v>
@@ -1958,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2">
         <v>100</v>
@@ -2039,255 +2143,481 @@
         <v>0</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AN7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>20</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="4">
         <v>50</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>50</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>50</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="4">
         <v>50</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <v>10</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="4">
         <v>15</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="4">
         <v>20</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="4">
         <v>30</v>
       </c>
-      <c r="U8" s="2">
-        <v>2</v>
-      </c>
-      <c r="V8" s="2">
-        <v>2</v>
-      </c>
-      <c r="W8" s="2">
-        <v>2</v>
-      </c>
-      <c r="X8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="2">
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4">
         <v>1.05</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="4">
         <v>1.01</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="4">
         <v>0.97</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="4">
         <v>0.87</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="4">
         <v>20</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="4">
         <v>20</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="4">
         <v>20</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="4">
         <v>20</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="4">
         <v>125</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8" s="4">
         <v>125</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8" s="4">
         <v>125</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8" s="4">
         <v>125</v>
       </c>
-      <c r="AK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="M9" s="7">
         <v>50</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="7">
         <v>50</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="7">
         <v>50</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="7">
         <v>50</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="8"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="2">
+        <v>50</v>
+      </c>
+      <c r="N10" s="2">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2">
+        <v>80</v>
+      </c>
+      <c r="P10" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>2</v>
+      </c>
+      <c r="W10" s="2">
+        <v>2</v>
+      </c>
+      <c r="X10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>350</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>375</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>425</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="4">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <v>50</v>
+      </c>
+      <c r="O11" s="4">
+        <v>50</v>
+      </c>
+      <c r="P11" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="W11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="X11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>175</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>175</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>175</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>175</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="7">
+        <v>50</v>
+      </c>
+      <c r="N12" s="7">
+        <v>50</v>
+      </c>
+      <c r="O12" s="7">
+        <v>50</v>
+      </c>
+      <c r="P12" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Assets/Resources/CSV.data/WeaponStat.xlsx
+++ b/Assets/Resources/CSV.data/WeaponStat.xlsx
@@ -1269,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2113,16 +2113,16 @@
         <v>1.49</v>
       </c>
       <c r="AC7" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AD7" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AE7" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AF7" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AG7" s="2">
         <v>175</v>
@@ -2235,16 +2235,16 @@
         <v>0.87</v>
       </c>
       <c r="AC8" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="4">
         <v>125</v>
@@ -2531,16 +2531,16 @@
         <v>0.8</v>
       </c>
       <c r="AC11" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD11" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE11" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="4">
         <v>175</v>

--- a/Assets/Resources/CSV.data/WeaponStat.xlsx
+++ b/Assets/Resources/CSV.data/WeaponStat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1E0F1-0EA1-43DB-B630-E71193316BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23595" windowHeight="8640"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponStat" sheetId="1" r:id="rId1"/>
@@ -253,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1266,11 +1267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2003,16 +2004,16 @@
         <v>15</v>
       </c>
       <c r="AG6" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AH6" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AI6" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AJ6" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AK6" s="2">
         <v>0</v>
@@ -2247,16 +2248,16 @@
         <v>3</v>
       </c>
       <c r="AG8" s="4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AH8" s="4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AI8" s="4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AJ8" s="4">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AK8" s="4">
         <v>0</v>
